--- a/ELA/OLO_ELA_K.xlsx
+++ b/ELA/OLO_ELA_K.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jane/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jane/Documents/Github/OpenLearningObjectives/ELA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="2200" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="264">
   <si>
     <t>CCSS ID</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>With guidance and support from adults, gather information from provided sources to answer a question</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1176,7 @@
     <col min="6" max="6" width="45" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,8 +1195,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
